--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
   </bookViews>
   <sheets>
-    <sheet name="Trabajar con remesas" sheetId="15" r:id="rId1"/>
+    <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
     <sheet name="ID Operación (TCR)" sheetId="38" r:id="rId2"/>
     <sheet name="Asignación ejecutivos" sheetId="16" r:id="rId3"/>
     <sheet name="Centralización Créditos Nuevos" sheetId="17" r:id="rId4"/>
@@ -25,14 +25,14 @@
     <sheet name="Generar Archivo SBIF D93" sheetId="26" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Trabajar con remesas'!$A$2:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alta crédito manual'!$A$2:$H$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="254">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Resultado esperado</t>
   </si>
   <si>
-    <t>Acción</t>
-  </si>
-  <si>
     <t>Agregar</t>
   </si>
   <si>
@@ -61,39 +58,16 @@
     <t>Exportar a Excel</t>
   </si>
   <si>
-    <t>Registro creado exitosamente</t>
-  </si>
-  <si>
     <t>Registro eliminado exitosamente</t>
   </si>
   <si>
     <t>Registro modificado exitosamente</t>
   </si>
   <si>
-    <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
-  </si>
-  <si>
-    <t>Remesas</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>Depositar
-Remesa</t>
-  </si>
-  <si>
-    <t>Enlace ID</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
     <t>Recaudación</t>
-  </si>
-  <si>
-    <t>Exportar
-Excel</t>
   </si>
   <si>
     <t>ID Operación
@@ -178,57 +152,6 @@
     <t>Legal</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesoRemesa_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_GenerarPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_EnlaceGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarDepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_DepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_PDFDepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_RemesaPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarDepositarPDF</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado y consulta de manera exitosa</t>
-  </si>
-  <si>
-    <t>Deposito de remesa de maera exitosa</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado y deposito de remesa de manera exitosa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Proceso, sub-modulo Trabajar con Remesa, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoRemesa_InformacionGeneral</t>
   </si>
   <si>
@@ -856,6 +779,33 @@
   </si>
   <si>
     <t>Sistema emite mensaje indicando Debe Ingresar Fecha</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionAltaCM_Traspaso</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionAltaCM_</t>
+  </si>
+  <si>
+    <t>Validar ejecución de forma manual, del consumo del WS que traspasa los créditos a cartera, indicando número de operación, patente y fecha correspondiente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionAltaCM_NumOperacion</t>
+  </si>
+  <si>
+    <t>Validar traspaso de créditos a cartera, indicando número de operación que no esta asociado al número de patente ingresado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionAltaCM_Patente</t>
+  </si>
+  <si>
+    <t>Validar traspaso de créditos a cartera, indicando número de patente que no esta asociado al número de operación ingresado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionAltaCM_Fecha</t>
+  </si>
+  <si>
+    <t>Validar traspaso de créditos a cartera, indicando fecha que no esta asociada al número de operación y patente</t>
   </si>
 </sst>
 </file>
@@ -886,7 +836,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -899,15 +849,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -929,17 +870,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -991,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,22 +931,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,49 +955,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1075,8 +990,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,26 +1008,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,806 +1333,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="54.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="255.42578125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="159.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="29" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="8" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
-        <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J3" s="6" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton ",IF(B3=1," agregar para el registro de nuevo registro","")," ",IF(C3=1," generar archivo PDF","")," ",IF(D3=1," depositar remesa",""),IF(E3=1,", considerando la opcion enlace ID pestaña general para consultar registro",IF(F3=1,", considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel","")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
-        <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J4" s="6" t="str">
-        <f t="shared" ref="J4:J12" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton ",IF(B4=1," agregar para el registro de nuevo registro","")," ",IF(C4=1," generar archivo PDF","")," ",IF(D4=1," depositar remesa",""),IF(E4=1,", considerando la opcion enlace ID pestaña general para consultar registro",IF(F4=1,", considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel","")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar  Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar  Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa</v>
-      </c>
-      <c r="J10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2254,44 +1653,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2514,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2548,44 +1947,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2808,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="28" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD21" sqref="AD21"/>
     </sheetView>
@@ -2840,51 +2239,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="40" t="s">
+      <c r="A1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="39"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="37"/>
       <c r="AB1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2899,76 +2298,76 @@
       </c>
     </row>
     <row r="2" spans="1:31" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="K2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="N2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="S2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="T2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="U2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="V2" s="22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W2" s="30"/>
       <c r="X2" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="12"/>
       <c r="AA2" s="21"/>
@@ -3014,16 +2413,16 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="6" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3061,16 +2460,16 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="6" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3108,16 +2507,16 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="AD5" s="6" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3155,16 +2554,16 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="AD6" s="6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3200,16 +2599,16 @@
       <c r="Z7" s="14"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="AD7" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="AE7" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3239,16 +2638,16 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="6" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="AE8" s="6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3278,16 +2677,16 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -3319,16 +2718,16 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="6" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -3356,16 +2755,16 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AE11" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3393,16 +2792,16 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="13"/>
       <c r="AB12" s="6" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AE12" s="16" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -3429,16 +2828,16 @@
       <c r="Z13" s="4"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -3465,16 +2864,16 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="6" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -3503,16 +2902,16 @@
       <c r="Z15" s="4"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="AE15" s="6" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -3541,16 +2940,16 @@
       <c r="Z16" s="4"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3580,16 +2979,16 @@
       <c r="Z17" s="14"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="6" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="AE17" s="16" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3617,16 +3016,16 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="AE18" s="16" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3662,16 +3061,16 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="AE19" s="16" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3707,16 +3106,16 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3752,16 +3151,16 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3994,16 +3393,16 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="6" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="AC29" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -4027,16 +3426,16 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="6" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -4502,6 +3901,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="K1:M1"/>
@@ -4510,11 +3914,6 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4559,44 +3958,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4851,30 +4250,30 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5134,72 +4533,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5445,72 +4844,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5756,44 +5155,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6051,86 +5450,86 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6371,86 +5770,86 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
-    <sheet name="ID Operación (TCR)" sheetId="38" r:id="rId2"/>
-    <sheet name="Asignación ejecutivos" sheetId="16" r:id="rId3"/>
+    <sheet name="Cuenta Corriente" sheetId="38" r:id="rId2"/>
+    <sheet name="Lista Blanca" sheetId="16" r:id="rId3"/>
     <sheet name="Centralización Créditos Nuevos" sheetId="17" r:id="rId4"/>
     <sheet name="Centralización Recaudaciones" sheetId="20" r:id="rId5"/>
     <sheet name="Selección de créditos (afianza)" sheetId="21" r:id="rId6"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="181">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -53,374 +53,6 @@
   </si>
   <si>
     <t>Modificar</t>
-  </si>
-  <si>
-    <t>Exportar a Excel</t>
-  </si>
-  <si>
-    <t>Registro eliminado exitosamente</t>
-  </si>
-  <si>
-    <t>Registro modificado exitosamente</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Recaudación</t>
-  </si>
-  <si>
-    <t>ID Operación
-(Trabajar con remesas)</t>
-  </si>
-  <si>
-    <t>Informacion
-General (Cliente)</t>
-  </si>
-  <si>
-    <t>Informacion del
-Bien (Comerciales)</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>Imprimir
-certificado</t>
-  </si>
-  <si>
-    <t>Documentos
-asociados</t>
-  </si>
-  <si>
-    <t>Pasar a Judicial</t>
-  </si>
-  <si>
-    <t>Pasar a pre
-Judicial</t>
-  </si>
-  <si>
-    <t>Bloquear RUT</t>
-  </si>
-  <si>
-    <t>Eliminar Crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo del Crédito
-</t>
-  </si>
-  <si>
-    <t>Ver comisiones</t>
-  </si>
-  <si>
-    <t>Seguimiento</t>
-  </si>
-  <si>
-    <t>Cheques</t>
-  </si>
-  <si>
-    <t>Comprobante
-PDF</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Comprobante
-de pago</t>
-  </si>
-  <si>
-    <t>Anular</t>
-  </si>
-  <si>
-    <t>Forma de pago
-(Consulta)</t>
-  </si>
-  <si>
-    <t>Geolocalización</t>
-  </si>
-  <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t>TER</t>
-  </si>
-  <si>
-    <t>CRE</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_InformacionGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Contabilidad</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Documentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_BloquearRut</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_EliminarCredito</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Comisiones</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_SeguimientoAgregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_SeguimientoEliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Geolocalizacion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ComprobantePDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ComprobantePago</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Anular</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_FormaPago</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_TER</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_CRE</t>
-  </si>
-  <si>
-    <t>Modificación de datos y consulta de mapa de manera exitosa</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, modificar datos de la sección información general con la opción datos clientes, luego de esto, modificar datos de la sección información del bien con la opción datos comerciales. Finalizando con consulta a la pestaña geolocalización para visualizar mapa.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, modificar datos de la sección contabilidad con la opción datos clientes, luego de esto, hacer clic en boton imprimir certificado.</t>
-  </si>
-  <si>
-    <t>Modificación de datos e impresión de certificado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, modificando datos de la pestaña general sección contabilidad e imprimir certiticado</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, modificando datos de la pestaña general sección información general e información del bien</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ChequeModificar</t>
-  </si>
-  <si>
-    <t>Enlace Número</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ChequeNumero</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton documentos asociados para visualizar y descargar documentos, luego, hacer clic en boton pasar a judicial y hacer clic en boton normalizar estado</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, visualizar y descargar documentos asociados, finalizando con pasar a judicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General,pasar registro seleccionado a pre judicial, finalizando con bloqueo de RUT</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, eliminando credito seleccionado</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a pre judicial y hacer clic en boton normalizar estado, finalizando con el bloqueo de RUT haciendo clic en boton bloquear RUT</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton eliminar crédito.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic en icono editar, cambiar datos del registro, finalizar con exportar archivo excel</t>
-  </si>
-  <si>
-    <t>Registro modificado y archivo exportado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando registro para modificiar y exportar archivo excel</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando exportar archivo excel y consultar las comisiones</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, exportar archivo excel, hacer clic en boton ver comisiones</t>
-  </si>
-  <si>
-    <t>Archivo exportado y cosulta de comisiones de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando registro para modificiar, se exporta archivo excel y se consultan las comisiones</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic en icono editar, cambiar datos del registro, exportar archivo excel y hacer clic en boton ver comisiones para consultar las mismas</t>
-  </si>
-  <si>
-    <t>Registro modificado, archivo exportado y consulta de comisiones de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Seguimiento, agregando nuevo registro</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic boton agregar, llenar formulario con datos correspondientes, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Ingreso de nuevo registro de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Seguimiento, eliminando registro exitente</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic boton eliminar, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Eliminacion de registro de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Geolocalización, consultando ubicación en el mapa</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Geolocalización, consultar ubicación en mapa y comparar con google maps</t>
-  </si>
-  <si>
-    <t>Consulta de ubicación de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, consultando comprobante de pago</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en boton ver comprobante de pago</t>
-  </si>
-  <si>
-    <t>Consulta de comprobante de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para consultar comprobante de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en boton comprobante de pago.</t>
-  </si>
-  <si>
-    <t>Se debe visualizar el mismo comprobante del casos anterior</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para anular comprobante de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en boton anular.</t>
-  </si>
-  <si>
-    <t>Sistema solo permite anular la  la última recaudación del crédito</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para consultar de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en pestaña forma de pago</t>
-  </si>
-  <si>
-    <t>Visualizar datos de forma de pago</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Proceso, para eliminar registro TER</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Proceso, para eliminar registro CRE</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Proceso, hacer clic en enlace ID Proceso, hacer clic en boton eliminar</t>
-  </si>
-  <si>
-    <t>Proceso eliminado exitosamente</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Cheque, para modificar cheque</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Cheque, para modificar registro cheque a traves de enlace Numero</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Cheques, hacer clic en boton editar, editar datos correspondientes del cheque</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Cheques, hacer clic en enlace Numero, hacer clic en boton modificar, editar datos correspondientes del registro de cheques, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Visualización, descarga de documentos y pasar a judicial de manera exitosa. El registro seleccionado debe tener 150 dias de en mora</t>
-  </si>
-  <si>
-    <t>Registro pasado a pre judicial, el registro seleccinado debe tener 91 dias en mora y bloqueo de Rut de manera exitosa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_PreJudicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General,pasar registro seleccionado a pre judicial que no ha cumplido plazo de 90 dias en mora</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a pre judicial.</t>
-  </si>
-  <si>
-    <t>Sistema debe emitir mensaje indicando que no se ha cumplido el plazo de 90dias en mora</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Judicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, seleccionando registro que no tiene estado pre judicial para pasar a judicial</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a judicial.</t>
-  </si>
-  <si>
-    <t>Sistema debe emitir mensaje indicando que no el registro no tiene estado pre judicial</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_Asignacion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_ReporteGrupos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_ReporteEjecutivos</t>
-  </si>
-  <si>
-    <t>Validar la emisión de archivo en formato excel que posee registro de la asignación de ejecutivos</t>
-  </si>
-  <si>
-    <t>Validar la emisión de reporte de ejecutivos, ordenados por grupo</t>
-  </si>
-  <si>
-    <t>Validar la emisión de reporte de ejecutivos, considerando todas las opciones del combo asignacion</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, hacer clic en boton asignar ejecutivos</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, hacer clic en boton reporte por grupos</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, seleccionar opcione del combo
-asignación, hacer clic en boton reporte ejecutivos</t>
-  </si>
-  <si>
-    <t>Reporte generado de manera exitosa</t>
   </si>
   <si>
     <t>TC_Cartera_ProcesosSeleccion_CartaGuia</t>
@@ -784,9 +416,6 @@
     <t>TC_Cartera_AdministracionAltaCM_Traspaso</t>
   </si>
   <si>
-    <t>TC_Cartera_AdministracionAltaCM_</t>
-  </si>
-  <si>
     <t>Validar ejecución de forma manual, del consumo del WS que traspasa los créditos a cartera, indicando número de operación, patente y fecha correspondiente</t>
   </si>
   <si>
@@ -806,6 +435,147 @@
   </si>
   <si>
     <t>Validar traspaso de créditos a cartera, indicando fecha que no esta asociada al número de operación y patente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionAltaCM_SinFecha</t>
+  </si>
+  <si>
+    <t>Validar traspaso de créditos a cartera, sin indicar fecha de ingreso</t>
+  </si>
+  <si>
+    <t>Traspaso de crédito a cartera de manera exitosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Alta Crédito Manual, ingresar número de operación que no ha sido traspasado a cartera, ingresar número de patente asociado al número de operación, ingresar fecha, hacer clic en boton confirmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Alta Crédito Manual, ingresar número de operación que no esta asociado a la patente, ingresar número de patente, ingresar fecha, hacer clic en boton confirmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Alta Crédito Manual, ingresar número de operación, ingresar número de patente que no esta asociado al número de operación, ingresar fecha, hacer clic en boton confirmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Alta Crédito Manual, ingresar número de operación, ingresar número de patente, ingresar fecha que no corresponde al registro, hacer clic en boton confirmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Alta Crédito Manual, ingresar número de operación, ingresar número de patente, hacer clic en boton confirmar </t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionAltaCM_Credito</t>
+  </si>
+  <si>
+    <t>Validar traspaso de crédito a cartera, ingresando número de operación que ha sido procesado anteriormente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Alta Crédito Manual, ingresar número de operación que se encuentre en cartera, ingresar número de patente asociado al número de operación, ingresar fecha, hacer clic en boton confirmar </t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje de error</t>
+  </si>
+  <si>
+    <t>Cuenta Corriente</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t>Corriente Nro</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>Enlace acción</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_AgregarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_AgregarEnlaceEliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_AgregarBancoModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_AgregarBancoEliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_AgregarCtaCte</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_ModificarCtaCte</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_EliminarCtaCte</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_ModificarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_ModificarEnlaceEliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_ModificarBanco</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_ModificarBancoEliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_EliminarEnlaceModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_EliminarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_EliminarBancoModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_EliminarBanco</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Agregar, ingresando datos que no se encuentren en cartera</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Eliminar, seleccionando registro que no es usado en cartera</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad Modificar,  seleccionando registro que no es usado en cartera</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCtaCte_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidades de agregar, eliminar y modificar del sub-modulo Cuenta Corriente, ingresando registro existente y eliminar y modificar registros que están en uso</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensajes de error en cada situación planteada</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, ingresar datos de registro exitente (se debe emitir mensaje de error),luego, seleccionar registro en uso para eliminar y modificar, se debe emitir mensaje de error correspondiente.</t>
+  </si>
+  <si>
+    <t>Ingreso de cta cte de manera exitosa</t>
+  </si>
+  <si>
+    <t>Modificación de cta cte de manera exitosa</t>
+  </si>
+  <si>
+    <t>Eliminación de cta cte de manera exitosa</t>
+  </si>
+  <si>
+    <t>Lista Blanca</t>
+  </si>
+  <si>
+    <t>Cliente RUT</t>
+  </si>
+  <si>
+    <t>Exportar Excel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_</t>
   </si>
 </sst>
 </file>
@@ -836,7 +606,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -906,22 +676,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,7 +698,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -971,27 +729,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -999,35 +748,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,9 +1084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,78 +1098,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>245</v>
+        <v>126</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>248</v>
+        <v>128</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -1428,7 +1207,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="6"/>
@@ -1455,11 +1234,11 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
       <c r="B18" s="8"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="16"/>
+      <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1503,8 +1282,8 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
       <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1551,7 +1330,7 @@
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="19"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1632,65 +1411,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1703,7 +1482,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -1728,7 +1507,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1749,7 +1528,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -1784,7 +1563,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1926,65 +1705,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1997,7 +1776,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -2022,7 +1801,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -2043,7 +1822,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -2078,7 +1857,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2205,1715 +1984,940 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="28" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD21" sqref="AD21"/>
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4" style="2" customWidth="1"/>
-    <col min="11" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" customWidth="1"/>
-    <col min="18" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5" style="5" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="49.42578125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="255.42578125" style="8" customWidth="1"/>
-    <col min="30" max="30" width="255.42578125" style="6" customWidth="1"/>
-    <col min="31" max="31" width="79" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="58.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="160.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="29" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="J1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="29" t="s">
+      <c r="K1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="12" t="s">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="26" t="s">
+      <c r="E2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="11">
-        <v>1</v>
-      </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),", considerando el enlace ",IF(E3=1,$E$2,IF(F3=1,$F$2,""))," para realizar la acción de ",IF(G3=1,$G$2,IF(H3=1,$H$2,"")))</f>
+        <v>Validar funcionalidad Agregar, considerando el enlace Corriente Nro para realizar la acción de Modificar</v>
+      </c>
+      <c r="K3" s="6" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, ",IF(B3=1,"hacer clic en boton agregar",IF(C3=1,"hacer clic en boton eliminar",IF(D3=1,"hacer clic en boton modificar"))),IF(E3=1,", considerar enlace Corriente Nro para realizar la acción de ",IF(F3=1,", considerar enlace Banco para realizar la acción de ","")),IF(G3=1,"modificar registro",IF(H3=1,"eliminar registro","")))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f t="shared" ref="J4:J17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
+        <v>Validar funcionalidad Agregar, considerando el enlace Corriente Nro para realizar la acción de Eliminar</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f t="shared" ref="K4:K17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, ",IF(B4=1,"hacer clic en boton agregar",IF(C4=1,"hacer clic en boton eliminar",IF(D4=1,"hacer clic en boton modificar"))),IF(E4=1,", considerar enlace Corriente Nro para realizar la acción de ",IF(F4=1,", considerar enlace Banco para realizar la acción de ","")),IF(G4=1,"modificar registro",IF(H4=1,"eliminar registro","")))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="7"/>
+      <c r="I5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar, considerando el enlace Banco para realizar la acción de Modificar</v>
+      </c>
+      <c r="K5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de modificar registro</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Agregar, considerando el enlace Banco para realizar la acción de Eliminar</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de eliminar registro</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE7" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar, considerando el enlace Corriente Nro para realizar la acción de Modificar</v>
+      </c>
+      <c r="K8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar, considerando el enlace Corriente Nro para realizar la acción de Eliminar</v>
+      </c>
+      <c r="K9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar, considerando el enlace Banco para realizar la acción de Modificar</v>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de modificar registro</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Eliminar, considerando el enlace Banco para realizar la acción de Eliminar</v>
+      </c>
+      <c r="K11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de eliminar registro</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="13">
-        <v>1</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="11">
-        <v>1</v>
-      </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar, considerando el enlace Corriente Nro para realizar la acción de Modificar</v>
+      </c>
+      <c r="K13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="4">
-        <v>1</v>
-      </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar, considerando el enlace Corriente Nro para realizar la acción de Eliminar</v>
+      </c>
+      <c r="K14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE15" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar, considerando el enlace Banco para realizar la acción de Modificar</v>
+      </c>
+      <c r="K15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de modificar registro</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4">
-        <v>1</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4">
-        <v>1</v>
-      </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Modificar, considerando el enlace Banco para realizar la acción de Eliminar</v>
+      </c>
+      <c r="K16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de eliminar registro</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14">
-        <v>1</v>
-      </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="13">
-        <v>1</v>
-      </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC19" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE20" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="7">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-    </row>
-    <row r="23" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-    </row>
-    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-    </row>
-    <row r="25" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="6"/>
-    </row>
-    <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="6"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="6"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE29" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC30" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD30" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE30" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="6"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="6"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="6"/>
-    </row>
-    <row r="34" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-    </row>
-    <row r="35" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-    </row>
-    <row r="36" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-    </row>
-    <row r="37" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-    </row>
-    <row r="38" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-    </row>
-    <row r="39" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="6"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="6"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="6"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="6"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="6"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="6"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D45" s="7"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="6"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="6"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D47" s="7"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="6"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="6"/>
-    </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="7"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3921,290 +2925,756 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="101" style="8" customWidth="1"/>
-    <col min="3" max="3" width="160.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="8" width="5.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="58.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="160.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="J1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="K1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="8">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4229,51 +3699,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4334,7 +3804,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -4351,7 +3821,7 @@
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4512,93 +3982,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>183</v>
+        <v>56</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4624,7 +4094,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -4645,7 +4115,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -4674,7 +4144,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4823,93 +4293,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>128</v>
+      <c r="A6" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>142</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4935,7 +4405,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -4956,7 +4426,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -4991,7 +4461,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5134,65 +4604,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5205,7 +4675,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -5230,7 +4700,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -5251,7 +4721,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -5286,7 +4756,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5429,107 +4899,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>221</v>
+        <v>96</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>222</v>
+        <v>97</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5549,7 +5019,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -5570,7 +5040,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -5599,7 +5069,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5749,107 +5219,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>221</v>
+        <v>90</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>222</v>
+        <v>91</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5869,7 +5339,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -5890,7 +5360,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -5919,7 +5389,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
     <sheet name="Cuenta Corriente" sheetId="38" r:id="rId2"/>
     <sheet name="Lista Blanca" sheetId="16" r:id="rId3"/>
-    <sheet name="Centralización Créditos Nuevos" sheetId="17" r:id="rId4"/>
-    <sheet name="Centralización Recaudaciones" sheetId="20" r:id="rId5"/>
-    <sheet name="Selección de créditos (afianza)" sheetId="21" r:id="rId6"/>
-    <sheet name="Generación XML (afianza)" sheetId="22" r:id="rId7"/>
-    <sheet name="Liquidación seguro cesantía" sheetId="23" r:id="rId8"/>
-    <sheet name="Liquidacición seguro desgravame" sheetId="24" r:id="rId9"/>
-    <sheet name="Generar Archivo SBIF D92" sheetId="25" r:id="rId10"/>
-    <sheet name="Generar Archivo SBIF D93" sheetId="26" r:id="rId11"/>
+    <sheet name="Parámetros" sheetId="17" r:id="rId4"/>
+    <sheet name="Parámetros de asignación" sheetId="20" r:id="rId5"/>
+    <sheet name="Tasa Máxima Convencional" sheetId="21" r:id="rId6"/>
+    <sheet name="Parámetros Afianza" sheetId="22" r:id="rId7"/>
+    <sheet name="Criterio Selección Crédito (Afi" sheetId="23" r:id="rId8"/>
+    <sheet name="Exclusión Tipo Vehículo (Afianz" sheetId="24" r:id="rId9"/>
+    <sheet name="Documentos Requeridos (Afianza)" sheetId="25" r:id="rId10"/>
+    <sheet name="Parámetros CRM SAC" sheetId="26" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alta crédito manual'!$A$2:$H$50</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="188">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -575,7 +575,28 @@
     <t>Exportar Excel</t>
   </si>
   <si>
-    <t>TC_Cartera_AdministracionLista_</t>
+    <t>TC_Cartera_AdministracionLista_Agregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_ModificarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_EliminarExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_AgregarClienteModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_AgregarClienteEliminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad agregar cliente, </t>
   </si>
 </sst>
 </file>
@@ -743,10 +764,28 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -759,24 +798,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1107,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,24 +1119,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1411,24 +1432,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1705,24 +1726,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1986,9 +2007,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,37 +2029,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2060,10 +2081,10 @@
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2118,7 +2139,7 @@
         <v>153</v>
       </c>
       <c r="J4" s="8" t="str">
-        <f t="shared" ref="J4:J17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
+        <f t="shared" ref="J4:J16" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
         <v>Validar funcionalidad Agregar, considerando el enlace Corriente Nro para realizar la acción de Eliminar</v>
       </c>
       <c r="K4" s="6" t="str">
@@ -2910,14 +2931,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2925,11 +2946,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3:I11"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,39 +2969,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +3011,7 @@
       <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="26" t="s">
         <v>178</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -2999,11 +3020,11 @@
       <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3023,9 +3044,11 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
@@ -3047,7 +3070,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="6"/>
@@ -3084,68 +3107,59 @@
         <v>1</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="4"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="6"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -3153,72 +3167,48 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
       <c r="I9" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6"/>
+        <v>184</v>
+      </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3231,7 +3221,7 @@
       <c r="I13" s="6"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="10"/>
@@ -3239,8 +3229,6 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="6"/>
       <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3255,39 +3243,45 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="D16" s="7"/>
       <c r="E16" s="10"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="6"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="6"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
       <c r="K19" s="6"/>
@@ -3295,6 +3289,8 @@
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="7"/>
       <c r="E20" s="10"/>
       <c r="F20" s="4"/>
@@ -3303,7 +3299,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="8"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -3317,7 +3313,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="8"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -3372,7 +3368,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="6"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="6"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3389,33 +3385,23 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
       <c r="D27" s="7"/>
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
       <c r="F28" s="4"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -3434,6 +3420,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -3451,18 +3440,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
@@ -3473,7 +3451,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="10"/>
@@ -3481,8 +3459,11 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="8"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="10"/>
@@ -3490,6 +3471,9 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -3539,7 +3523,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="10"/>
@@ -3547,11 +3531,8 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="10"/>
@@ -3559,9 +3540,6 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
@@ -3635,7 +3613,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="10"/>
@@ -3643,38 +3621,20 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3699,24 +3659,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3982,24 +3942,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4293,24 +4253,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4604,24 +4564,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4899,24 +4859,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5219,24 +5179,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="212">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -596,7 +596,79 @@
     <t>TC_Cartera_AdministracionLista_AgregarClienteEliminar</t>
   </si>
   <si>
-    <t xml:space="preserve">Validar funcionalidad agregar cliente, </t>
+    <t>Validar funcionalidad agregar cliente, considerando enlace cliente rut para editar registro.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar cliente, considerando enlace cliente rut para eliminar registro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad agregar, indicando datos de cliente que no se encuentra en cartera. </t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca, hacer clic en boton agregar, ingresar datos del nuevo cliente, hacer clic en boton confirmar, hacer clic en enlace cliente rut, hacer clic en boton modificar, editar datos del registro, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca, hacer clic en boton agregar, ingresar datos del nuevo cliente, hacer clic en boton confirmar, hacer clic en enlace cliente rut, hacer clic en boton eliminar, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca, hacer clic en boton agregar, ingresar datos del nuevo cliente, hacer clic en boton confirmar, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca, seleccionar registro, hacer clic en boton modificar, editar datos del registro, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca, seleccionar registro, hacer clic en boton modificar, editar datos del registro, hacer clic en boton confirmar, hacer clic en boton exportar excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca, seleccionar registro, hacer clic en boton eliminar, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca, seleccionar registro, hacer clic en boton eliminar, hacer clic en boton confirmar, hacer clic en boton exportar excel</t>
+  </si>
+  <si>
+    <t>Ingreso de nuevo cliente y modificación de registro de manera exitosa</t>
+  </si>
+  <si>
+    <t>Ingreso de nuevo cliente y eliminación de registro de manera exitosa</t>
+  </si>
+  <si>
+    <t>Ingreso de nuevo cliente de manera exitosa</t>
+  </si>
+  <si>
+    <t>Modificación de registro de manera exitosa</t>
+  </si>
+  <si>
+    <t>Modificación de registro y descarga de archivo excel de manera exitosa</t>
+  </si>
+  <si>
+    <t>Eliminación de registro de manera exitosa</t>
+  </si>
+  <si>
+    <t>Eliminación de registro y descarga de archivo excel de manera exitosa</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar, seleccionando registro asociado a razón VIP</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar, seleccionando registro asociado a razón Empresa Relacionada</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar, seleccionando registro asociado a razón Director Ejecutivo</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar, seleccionando registro asociado a razón  Gerente General</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionLista_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidades de agregar, eliminar y modificar del sub-modulo Lista Blanca, ingresando registro existente y eliminar y modificar registros que están en uso</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Lista Blanca hacer clic en boton agregar, ingresar datos de registro exitente (se debe emitir mensaje de error),luego, seleccionar registro en uso para eliminar y modificar, se debe emitir mensaje de error correspondiente.</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensajes de error en cada situación planteada.</t>
   </si>
 </sst>
 </file>
@@ -775,6 +847,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -786,18 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2007,9 +2079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
+    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,22 +2101,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2131,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2948,9 +3020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,28 +3035,28 @@
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="8" width="5.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="58.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="160.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="116.42578125" style="8" customWidth="1"/>
     <col min="11" max="11" width="255.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="29" t="s">
         <v>179</v>
       </c>
       <c r="I1" s="27" t="s">
@@ -3001,7 +3073,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -3020,7 +3092,7 @@
       <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -3049,8 +3121,12 @@
       <c r="J3" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -3072,9 +3148,15 @@
       <c r="I4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -3094,9 +3176,15 @@
       <c r="I5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="J5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -3114,9 +3202,15 @@
       <c r="I6" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -3136,9 +3230,15 @@
       <c r="I7" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -3155,9 +3255,15 @@
       <c r="I8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -3176,7 +3282,15 @@
       <c r="I9" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="J9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -3218,8 +3332,18 @@
       <c r="F13" s="4"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="L13" s="15"/>
+      <c r="I13" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -3420,9 +3544,6 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="6"/>
-      <c r="L30" s="6" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -3646,7 +3767,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3928,7 +4049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -173,63 +173,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Créditos Nuevos, hacer clic en botón generar contabilización</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesosCR_ContabilizacionRecaudaciones</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosCR_IngresoNroComprobante</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosCR_GenerarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosCR_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosCR_Fecha</t>
-  </si>
-  <si>
-    <t>Validar la contabilización de las recaudaciones a una fecha determinada.</t>
-  </si>
-  <si>
-    <t>Validar ingreso de número de comprobante para las recaudaciones centralizadas a una fecha.</t>
-  </si>
-  <si>
-    <t>Validar emisión de archivo excel, el cual contine información de las recaudaciones centralizadas a una fecha.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad de eliminar, con respecto a la contabilización de las recaudaciones a una fecha determinada.</t>
-  </si>
-  <si>
-    <t>Validar la contabilización de las recaudaciones, indicando fecha en la cual no se encuentran registros</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Recaudaciones, hacer clic en boton agregar, ingresar fecha, hacer clic en botón confirmar</t>
-  </si>
-  <si>
-    <t>Se genera la centralización de la recaudación, la cual, selecciona las recaudaciones que cumplan con haber sido recepcionadas en la fecha indicada, generando un registro de recaudación al cual debe terminar generada correctamente</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Recaudaciones, hacer clic en ícono azul, ingresar numero de comprobante, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Ingreso del número de comprobante al registro correspondiente de la centralización de la recaudación y cada recaudación que se encuentre contenida en ésta.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Recaudaciones, hacer clic en boton generar excel</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel con la centralización de la recaudación</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Recaudaciones, hacer clic en boton eliminar</t>
-  </si>
-  <si>
-    <t>Registro eliminado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Sistema emite mensaje indicando No se encontraron registros para la fecha seleccionada</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesosLSC_ConCobertura</t>
   </si>
   <si>
@@ -669,6 +612,78 @@
   </si>
   <si>
     <t>Sistema debe emitir mensajes de error en cada situación planteada.</t>
+  </si>
+  <si>
+    <t>Parámetros de asignación</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionPAsignacion_AgregarGrupo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionPAsignacion_RangoCuotas</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionPAsignacion_AgregarEnlace</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionPAsignacion_AgregarCobradores</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionPAsignacion_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionPAsignacion_Modificar</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar grupo, considerando enlace nombre para modificar registro.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar grupo, considerando enlace nombre para eliminar registro.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar grupo, seleccionando cobradores para asociar a grupo</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar grupo, seleccionando grupo que este asociado a morosidad 401 a 700.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar funcionalidad modificar grupo, seleccionando grupo que posea cuota inicial 3 y final 68. </t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar grupo, ingresando cuota inicial y final que ya se encuentra asociado a rango de morosidad.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Parámetros de asignación, hacer clic en boton agregar, ingresar cuota inicial y final, seleccionar rango de morosidad, hacer clic en boton confirmar, seleccionar registro y hacer clic en enlace nombre, hacer clic en boton modificar, editar datos del registro, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Parámetros de asignación, hacer clic en boton agregar, ingresar cuota inicial y final, seleccionar rango de morosidad, hacer clic en boton confirmar, seleccionar registro y hacer clic en enlace nombre, hacer clic en boton eliminar, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Parámetros de asignación, hacer clic en boton agregar, ingresar cuota inicial y final, seleccionar rango de morosidad, hacer clic en boton confirmar, hacer clic en boton exportar excel.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Parámetros de asignación, seleccionar registro asociado a morosidad 401 -700, hacer clic en boton eliminar, hacer clic en boton confirmar, hacer clic en boton exportar excel.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Parámetros de asignación, seleccionar registro con cuota inicial 3 y final 68, hacer clic en boton modificar, editar datos del registro, hacer clic en boton confirmar, hacer clic en boton exportar excel.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Parámetros de asignación, hacer clic en boton agregar, ingresar cuota inicial y final que se encuentra en sistema, seleccionar rango de morosidad ya asociado a cuotas, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensaje indicando elija otro rango de morosidad</t>
+  </si>
+  <si>
+    <t>Registro de nuevo grupo de manera exitosa</t>
+  </si>
+  <si>
+    <t>Modificación de grupo de manera exitosa</t>
+  </si>
+  <si>
+    <t>Eliminación de grupo de manera exitosa</t>
   </si>
 </sst>
 </file>
@@ -773,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,6 +856,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -870,6 +891,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,107 +1218,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1504,65 +1531,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1798,65 +1825,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2079,9 +2106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K32" sqref="K32"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,37 +2128,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="27" t="s">
+      <c r="K1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2142,10 +2169,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
@@ -2153,10 +2180,10 @@
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2176,7 +2203,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J3" s="8" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),", considerando el enlace ",IF(E3=1,$E$2,IF(F3=1,$F$2,""))," para realizar la acción de ",IF(G3=1,$G$2,IF(H3=1,$H$2,"")))</f>
@@ -2187,7 +2214,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2208,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" ref="J4:J16" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
@@ -2219,7 +2246,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2240,7 +2267,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2251,7 +2278,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2272,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2283,7 +2310,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2300,17 +2327,17 @@
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="K7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2331,7 +2358,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2342,7 +2369,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2362,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2373,7 +2400,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2393,7 +2420,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2404,7 +2431,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2424,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2435,7 +2462,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2451,17 +2478,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="K12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2480,7 +2507,7 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2491,7 +2518,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2548,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2540,7 +2567,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2551,7 +2578,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2581,7 +2608,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2596,17 +2623,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2788,16 +2815,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3020,9 +3047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,39 +3068,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="27" t="s">
+      <c r="K1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -3084,7 +3111,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -3092,11 +3119,11 @@
       <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3116,16 +3143,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3146,16 +3173,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3200,16 +3227,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3228,16 +3255,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3253,16 +3280,16 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3280,16 +3307,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3333,16 +3360,16 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3780,24 +3807,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4047,310 +4074,740 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="116.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="178" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="58.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="120.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="255.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="J1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="K1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="40">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="8">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4374,24 +4831,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4685,24 +5142,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4980,107 +5437,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5300,107 +5757,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="216">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -173,33 +173,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Créditos Nuevos, hacer clic en botón generar contabilización</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesosLSC_ConCobertura</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSC_SinCobertura</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSC_Todas</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSC_SeguroSinCobertura</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSC_AdministradorGarantias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSC_CorredoraSeguros</t>
-  </si>
-  <si>
-    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de cesantía, seleccionando los que tengan cobertura</t>
-  </si>
-  <si>
-    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de cesantía, seleccionando los que no tengan cobertura</t>
-  </si>
-  <si>
-    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de cesantía, seleccionando todos los registros.</t>
-  </si>
-  <si>
     <t>Se genera archivo excel con los créditos que posean cobertura</t>
   </si>
   <si>
@@ -254,24 +227,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, hacer clic en botón Corredora de Seguros</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, seleccionar opción con cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, seleccionar opción sin cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, seleccionar opción Todos del combo cobertura, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, hacer clic en boton Seguro sin Cobertura</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, hacer clic en boton Administrador Garantías</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, hacer clic en botón Corredora de Seguros</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validar envío de archivo a directorio FTP, de liquidación de seguro sin cobertura </t>
   </si>
   <si>
@@ -684,6 +639,48 @@
   </si>
   <si>
     <t>Eliminación de grupo de manera exitosa</t>
+  </si>
+  <si>
+    <t>Criterio Selección Crédito (Afianza)</t>
+  </si>
+  <si>
+    <t>Tipo dato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerico </t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Carácter</t>
+  </si>
+  <si>
+    <t>Operador Desde</t>
+  </si>
+  <si>
+    <t>Operador Hasta</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Mayor igual</t>
+  </si>
+  <si>
+    <t>Menor igual</t>
+  </si>
+  <si>
+    <t>Distinto</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
   </si>
 </sst>
 </file>
@@ -788,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,6 +859,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -892,11 +898,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,107 +1231,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1531,65 +1544,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1825,65 +1838,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2128,37 +2141,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="29" t="s">
+      <c r="A1" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2169,10 +2182,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
@@ -2180,10 +2193,10 @@
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2203,7 +2216,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="J3" s="8" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),", considerando el enlace ",IF(E3=1,$E$2,IF(F3=1,$F$2,""))," para realizar la acción de ",IF(G3=1,$G$2,IF(H3=1,$H$2,"")))</f>
@@ -2214,7 +2227,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2235,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" ref="J4:J16" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
@@ -2246,7 +2259,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2267,7 +2280,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2278,7 +2291,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2299,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2310,7 +2323,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2327,17 +2340,17 @@
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,7 +2371,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2369,7 +2382,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2389,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2400,7 +2413,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2420,7 +2433,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2431,7 +2444,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2451,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2462,7 +2475,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2478,17 +2491,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2507,7 +2520,7 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2518,7 +2531,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2537,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2548,7 +2561,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2567,7 +2580,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2578,7 +2591,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2597,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2608,7 +2621,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2623,17 +2636,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,16 +2828,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3068,39 +3081,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -3111,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -3119,11 +3132,11 @@
       <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3143,16 +3156,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3173,16 +3186,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3201,16 +3214,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3227,16 +3240,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3255,16 +3268,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3280,16 +3293,16 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3307,16 +3320,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3360,16 +3373,16 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3807,24 +3820,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4076,7 +4089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
@@ -4098,39 +4111,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="A1" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -4141,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -4149,11 +4162,11 @@
       <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -4164,7 +4177,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="40">
+      <c r="E3" s="31">
         <v>1</v>
       </c>
       <c r="F3" s="4">
@@ -4173,16 +4186,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4203,16 +4216,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4231,16 +4244,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4257,16 +4270,16 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4283,16 +4296,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -4318,16 +4331,16 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4800,14 +4813,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4831,24 +4844,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5142,24 +5155,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5421,318 +5434,1640 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="22" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="129.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="103.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" style="2" customWidth="1"/>
+    <col min="5" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="42" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="42" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" style="42" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="42" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="42" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" style="42" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="58.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="160.85546875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="255.42578125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="W1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="X1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="35"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="7">
+        <v>1</v>
+      </c>
+      <c r="V3" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="W7" s="8"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" s="8"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="15"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="8"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="7">
+        <v>1</v>
+      </c>
+      <c r="V10" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="W10" s="8"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" s="15"/>
+    </row>
+    <row r="14" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="W14" s="8"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="15"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y15" s="15"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" s="15"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="7">
+        <v>1</v>
+      </c>
+      <c r="V17" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y17" s="15"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="46"/>
+    </row>
+    <row r="19" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="15"/>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="15"/>
+    </row>
+    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="15"/>
+    </row>
+    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+    </row>
+    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+    </row>
+    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+    </row>
+    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+    </row>
+    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="6"/>
+    </row>
+    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="46"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="46"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="46"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y32" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="46"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="46"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="46"/>
+    </row>
+    <row r="36" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+    </row>
+    <row r="37" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+    </row>
+    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+    </row>
+    <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+    </row>
+    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+    </row>
+    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="46"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="46"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="46"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="46"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="46"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="46"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="46"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="46"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="46"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="46"/>
+    </row>
+    <row r="52" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="9">
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5757,107 +7092,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="228">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -55,67 +55,6 @@
     <t>Modificar</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesosSeleccion_CartaGuia</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_ExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_CartaGuiaPolitica</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_IncluirPagares</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_ExcluirPagares</t>
-  </si>
-  <si>
-    <t>Validar inclusión de pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion si del filtro excluidos, hacer clic en boton incorporar, hacer clic en boton si</t>
-  </si>
-  <si>
-    <t>Inclusion de pagare de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar emision de carta guia con pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), hacer clic en boton crear carta guia</t>
-  </si>
-  <si>
-    <t>Emisión de carta guia con pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Validar descarga de archivo excel con pagares que cumple y no cumplen con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion con politica del filtro Política Selección, hacer clic en boton exportar a excel, luego, seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel, visualizando registro según criterios seleccionados</t>
-  </si>
-  <si>
-    <t>Validar emision de carta guia con pagares que no cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton crear carta guia</t>
-  </si>
-  <si>
-    <t>Emisión de carta guia con pagares que no cumple con las políticas aplicadas en los criterios 
-de selección, la selección de pagares queda a criterio del usuario para emitir carta</t>
-  </si>
-  <si>
-    <t>Validar exclusión de pagares que cumplen y no cumplen con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton desmarcar credito, hacer clic en boton si, luego, seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton desmarcar credito, hacer clic en boton si</t>
-  </si>
-  <si>
-    <t>Exclusion de pagare de manera exitosa</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoXML_OfertaTD</t>
   </si>
   <si>
@@ -173,78 +112,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Créditos Nuevos, hacer clic en botón generar contabilización</t>
   </si>
   <si>
-    <t>Se genera archivo excel con los créditos que posean cobertura</t>
-  </si>
-  <si>
-    <t>Se genera archivo excel con los créditos que no posean cobertura</t>
-  </si>
-  <si>
-    <t>Se genera archivo excel con todos los créditos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSD_ConCobertura</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSD_SinCobertura</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSD_Todas</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSD_SeguroSinCobertura</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSD_AdministradorGarantias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosLSD_CorredoraSeguros</t>
-  </si>
-  <si>
-    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de desgravamen, seleccionando los que tengan cobertura</t>
-  </si>
-  <si>
-    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de desgravamen, seleccionando los que no tengan cobertura</t>
-  </si>
-  <si>
-    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de desgravamen, seleccionando todos los registros.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, seleccionar opción con cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, seleccionar opción sin cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, seleccionar opción Todos del combo cobertura, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, hacer clic en boton Seguro sin Cobertura</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, hacer clic en boton Administrador Garantías</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, hacer clic en botón Corredora de Seguros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar envío de archivo a directorio FTP, de liquidación de seguro sin cobertura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validar envío de archivo por correo con la información de liquidación de seguro con cobertura </t>
-  </si>
-  <si>
-    <t>Validar envío de archivo por correo con la información de liquidación de seguro con cobertura y nombre de corredora</t>
-  </si>
-  <si>
-    <t>Envío de archivo a directorio FTP de manera exitosa</t>
-  </si>
-  <si>
-    <t>Envío de archivo a correo de liquidación de seguro con cobertura de manera exitosa</t>
-  </si>
-  <si>
-    <t>Envío de archivo a correo de liquidación de seguro con cobertura y nombre de corredora de manera exitosa</t>
-  </si>
-  <si>
     <t>TC_Cartera_SBIFD92_DescargarArchivo</t>
   </si>
   <si>
@@ -647,9 +514,6 @@
     <t>Tipo dato</t>
   </si>
   <si>
-    <t xml:space="preserve">Numerico </t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -681,6 +545,177 @@
   </si>
   <si>
     <t>No Aplica</t>
+  </si>
+  <si>
+    <t>Exportar a Excel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ANumericoIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ANumericoMayor</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ANumericoMenor</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_AFechaMayorIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_AFechaMenorIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ACaracterDistino</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ACaracterNoAplica</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ENumericoIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ENumericoMayor</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ENumericoMenor</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_EFechaMayorIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_EFechaMenorIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ECaracterDistino</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_ECaracterNoAplica</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_MNumericoIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_MNumericoMayor</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_MNumericoMenor</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_MFechaMayorIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_MFechaMenorIgual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_MCaracterDistino</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_MCaracterNoAplica</t>
+  </si>
+  <si>
+    <t>Numerico</t>
+  </si>
+  <si>
+    <t>Registro ingresado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Registro eliminado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Registro modificado de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCSC_CriterioExistente</t>
+  </si>
+  <si>
+    <t>Validar ingreso de critero que ya se encuentra en cartera</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito, hacer clic boton agregar, ingresar parámetro ANTIGUEDADLABORALPJ, seleccionar tipo dato numerico, seleccionar operador desde mayor igual 12, operador hasta no aplica, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensaje indicando "Ya existe el registro"</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionExclusionTV_Eliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionExclusionTV_Modificar</t>
+  </si>
+  <si>
+    <t>Tipo Nombre</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionExclusionTV_AgregarVehiculoModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionExclusionTV_AgregarVehiculoEliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionExclusionTV_AgregarVehiculo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionExclusionTV_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar exlcusión tipo vehículo, considerando enlace tipo nombre para modificar registro.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar exlcusión tipo vehículo, considerando enlace Tipo nombre para eliminar registro.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar exlcusión tipo vehículo, seleccionando tipo ID 2 para ingresar el nuevo registro.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar exlcusión tipo vehículo, seleccionando registro asociado a tipo nombre camión</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar exlcusión tipo vehículo, seleccionando registro asociado a tipo ID 10.</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar exclusión tipo vehículo, ingresando datos de registro existente, luego de ello, no se especifica tipo ID</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Exclusión tipo vehículo (Afianza), hacer clic en boton agregar, ingresar tipo ID, hacer clic en campo tipo nombre, hacer clic en boton confirmar, seleccionar registro y hacer clic en enlace tipo nombre, hacer clic en boton modificar, editar datos del registro, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Exclusión tipo vehículo (Afianza), hacer clic en boton agregar, ingresar tipo ID, hacer clic en campo tipo nombre, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Exclusión tipo vehículo (Afianza), hacer clic en boton agregar, ingresar tipo IDl, hacer clic en campo tipo nombre seleccionar rango de morosidad, hacer clic en boton confirmar, seleccionar registro y hacer clic en enlace tipo nombre, hacer clic en boton eliminar, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Exclusión tipo vehículo (Afianza), seleccionar registro asociado a tipo nombre camión, hacer clic en boton eliminar, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Exclusión tipo vehículo, seleccionar registro asociado a tipo ID 10, hacer clic en boton modificar, editar datos del registro, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Exclusión tipo vehículo (Afianza), hacer clic en boton agregar, ingresar tipo ID que se encuentre ya ingresado como excluido, hacer clic en boton confirmar, luego, borrar tipo ID ingresado y hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Sistema debe emitir mensaje de error en cada situación planteada</t>
+  </si>
+  <si>
+    <t>Registro de exclusión tipo vehículo de manera exitosa</t>
+  </si>
+  <si>
+    <t>Eliminación de exclusión tipo vehículo de manera exitosa</t>
+  </si>
+  <si>
+    <t>Modificación de exclusión tipo vehículo de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionTMC_Consulta</t>
+  </si>
+  <si>
+    <t>Validar ingreso al sub modulo tasa máxima convencianal para consultar registros existentes</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - Tasa Máxima Convencional, visualizar registros de tasas</t>
+  </si>
+  <si>
+    <t>Consulta de tasas de manera exitosa</t>
   </si>
 </sst>
 </file>
@@ -785,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,6 +903,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -898,18 +943,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,107 +1275,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1544,65 +1588,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1826,7 +1870,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,65 +1882,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2141,37 +2185,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="32" t="s">
+      <c r="A1" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="K1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2182,10 +2226,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
@@ -2193,10 +2237,10 @@
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2216,7 +2260,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),", considerando el enlace ",IF(E3=1,$E$2,IF(F3=1,$F$2,""))," para realizar la acción de ",IF(G3=1,$G$2,IF(H3=1,$H$2,"")))</f>
@@ -2227,7 +2271,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2248,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" ref="J4:J16" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
@@ -2259,7 +2303,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,7 +2324,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2291,7 +2335,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2312,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2323,7 +2367,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2340,17 +2384,17 @@
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2371,7 +2415,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2382,7 +2426,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2402,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2413,7 +2457,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2433,7 +2477,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2444,7 +2488,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2464,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2475,7 +2519,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2491,17 +2535,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2520,7 +2564,7 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2531,7 +2575,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2550,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2561,7 +2605,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2580,7 +2624,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2591,7 +2635,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2621,7 +2665,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2636,17 +2680,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="K17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2828,16 +2872,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3081,39 +3125,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="K1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -3124,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -3132,11 +3176,11 @@
       <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3156,16 +3200,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3186,16 +3230,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3214,16 +3258,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3240,16 +3284,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3268,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3293,16 +3337,16 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3320,16 +3364,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3373,16 +3417,16 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3820,51 +3864,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4090,8 +4134,8 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <pane xSplit="9" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,39 +4155,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="K1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -4154,7 +4198,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -4162,11 +4206,11 @@
       <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -4186,16 +4230,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4216,16 +4260,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4244,20 +4288,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>1</v>
@@ -4270,20 +4316,22 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="7">
@@ -4296,16 +4344,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -4331,16 +4379,16 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4830,108 +4878,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G10" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="101" style="6" customWidth="1"/>
+    <col min="2" max="2" width="94" style="8" customWidth="1"/>
+    <col min="3" max="3" width="151.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -5155,65 +5171,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5434,11 +5450,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="22" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="23" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,132 +5470,136 @@
     <col min="11" max="12" width="3.85546875" customWidth="1"/>
     <col min="13" max="13" width="3.5703125" customWidth="1"/>
     <col min="14" max="14" width="4.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="42" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="42" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="42" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="42" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" style="42" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="58.5703125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="160.85546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="255.42578125" style="6" customWidth="1"/>
-    <col min="25" max="25" width="85.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="34" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" style="34" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="34" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="34" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" style="34" customWidth="1"/>
+    <col min="21" max="22" width="3.85546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="58.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="163.42578125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="255.42578125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="45" t="s">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="X1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="V2" s="37"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5611,14 +5631,25 @@
       <c r="U3" s="7">
         <v>1</v>
       </c>
-      <c r="V3" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="7">
+        <v>1</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="X3" s="8" t="str">
+        <f>CONCATENATE("Validad funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),IF(B3=1,", ingresando registro ",IF(C3=1,", seleccionando registro ",IF(D3=1,", seleccionando registro "))),$E$1," ",IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2))),"y ",$H$1," ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2)))))))," - ",$O$1," ",IF(O3=1,$O$2,IF(P3=1,$P$2,IF(Q3=1,$Q$2,IF(R3=1,$R$2,IF(S3=1,$S$2,IF(T3=1,$T$2,IF(U3=1,$U$2))))))),IF(V3=1,". Considerando la opcion de exportar a excel",""))</f>
+        <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Numericoy Operador Desde Igual - Operador Hasta No Aplica. Considerando la opcion de exportar a excel</v>
+      </c>
+      <c r="Y3" s="6" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza)",IF(B3=1,", hacer clic en boton agregar e ingresar ",IF(C3=1,", seleccionar registro ",IF(D3=1,", seleccionar registro"))),$E$1," ",IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2)))," y ",$H$1," ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2)))))))," - ",$O$1," ",IF(O3=1,$O$2,IF(P3=1,$P$2,IF(Q3=1,$Q$2,IF(R3=1,$R$2,IF(S3=1,$S$2,IF(T3=1,$T$2,IF(U3=1,$U$2))))))),IF(C3=1," para eliminar",IF(D3=1," para modificar","")),IF(V3=1,", finalizando con exportar a excel",""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Igual - Operador Hasta No Aplica, finalizando con exportar a excel</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -5650,14 +5681,23 @@
         <v>1</v>
       </c>
       <c r="U4" s="7"/>
-      <c r="V4" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="7"/>
+      <c r="W4" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="X4" s="8" t="str">
+        <f t="shared" ref="X4:X22" si="0">CONCATENATE("Validad funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),IF(B4=1,", ingresando registro ",IF(C4=1,", seleccionando registro ",IF(D4=1,", seleccionando registro "))),$E$1," ",IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2))),"y ",$H$1," ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))," - ",$O$1," ",IF(O4=1,$O$2,IF(P4=1,$P$2,IF(Q4=1,$Q$2,IF(R4=1,$R$2,IF(S4=1,$S$2,IF(T4=1,$T$2,IF(U4=1,$U$2))))))),IF(V4=1,". Considerando la opcion de exportar a excel",""))</f>
+        <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Numericoy Operador Desde Mayor - Operador Hasta Distinto</v>
+      </c>
+      <c r="Y4" s="6" t="str">
+        <f t="shared" ref="Y4:Y23" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza)",IF(B4=1,", hacer clic en boton agregar e ingresar ",IF(C4=1,", seleccionar registro ",IF(D4=1,", seleccionar registro"))),$E$1," ",IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2)))," y ",$H$1," ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))," - ",$O$1," ",IF(O4=1,$O$2,IF(P4=1,$P$2,IF(Q4=1,$Q$2,IF(R4=1,$R$2,IF(S4=1,$S$2,IF(T4=1,$T$2,IF(U4=1,$U$2))))))),IF(C4=1," para eliminar",IF(D4=1," para modificar","")),IF(V4=1,", finalizando con exportar a excel",""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Mayor - Operador Hasta Distinto</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -5689,14 +5729,23 @@
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="7"/>
+      <c r="W5" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="X5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Numericoy Operador Desde Menor - Operador Hasta Menor igual</v>
+      </c>
+      <c r="Y5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Menor - Operador Hasta Menor igual</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -5705,10 +5754,10 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -5728,14 +5777,25 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="7"/>
-      <c r="V6" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="7">
+        <v>1</v>
+      </c>
+      <c r="W6" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="X6" s="8" t="str">
+        <f>CONCATENATE("Validad funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2))),IF(B6=1,", ingresando registro ",IF(C6=1,", seleccionando registro ",IF(D6=1,", seleccionando registro "))),$E$1," ",IF(E6=1,$E$2,IF(F6=1,$F$2,IF(G6=1,$G$2)))," y ",$H$1," ",IF(H6=1,$H$2,IF(I6=1,$I$2,IF(J6=1,$J$2,IF(K6=1,$K$2,IF(L6=1,$L$2,IF(M6=1,$M$2,IF(N6=1,$N$2)))))))," - ",$O$1," ",IF(O6=1,$O$2,IF(P6=1,$P$2,IF(Q6=1,$Q$2,IF(R6=1,$R$2,IF(S6=1,$S$2,IF(T6=1,$T$2,IF(U6=1,$U$2))))))),IF(V6=1,". Considerando la opcion de exportar a excel",""))</f>
+        <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual. Considerando la opcion de exportar a excel</v>
+      </c>
+      <c r="Y6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual, finalizando con exportar a excel</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -5744,10 +5804,10 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -5767,14 +5827,23 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-    </row>
-    <row r="8" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="7"/>
+      <c r="W7" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="X7" s="8" t="str">
+        <f t="shared" ref="X7:X22" si="2">CONCATENATE("Validad funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2))),IF(B7=1,", ingresando registro ",IF(C7=1,", seleccionando registro ",IF(D7=1,", seleccionando registro "))),$E$1," ",IF(E7=1,$E$2,IF(F7=1,$F$2,IF(G7=1,$G$2)))," y ",$H$1," ",IF(H7=1,$H$2,IF(I7=1,$I$2,IF(J7=1,$J$2,IF(K7=1,$K$2,IF(L7=1,$L$2,IF(M7=1,$M$2,IF(N7=1,$N$2)))))))," - ",$O$1," ",IF(O7=1,$O$2,IF(P7=1,$P$2,IF(Q7=1,$Q$2,IF(R7=1,$R$2,IF(S7=1,$S$2,IF(T7=1,$T$2,IF(U7=1,$U$2))))))),IF(V7=1,". Considerando la opcion de exportar a excel",""))</f>
+        <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor</v>
+      </c>
+      <c r="Y7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -5783,11 +5852,11 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5806,14 +5875,23 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="W8" s="8"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="15"/>
-    </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="7"/>
+      <c r="W8" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="X8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Carácter y Operador Desde Distinto - Operador Hasta Mayor</v>
+      </c>
+      <c r="Y8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Carácter y Operador Desde Distinto - Operador Hasta Mayor</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -5822,11 +5900,11 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5845,21 +5923,32 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="W9" s="8"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="15"/>
-    </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="X9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Carácter y Operador Desde No Aplica - Operador Hasta Igual. Considerando la opcion de exportar a excel</v>
+      </c>
+      <c r="Y9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Carácter y Operador Desde No Aplica - Operador Hasta Igual, finalizando con exportar a excel</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -5884,21 +5973,30 @@
       <c r="U10" s="7">
         <v>1</v>
       </c>
-      <c r="V10" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="15"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V10" s="7"/>
+      <c r="W10" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="X10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Eliminar, seleccionando registro Tipo dato Fecha y Operador Desde Igual - Operador Hasta No Aplica</v>
+      </c>
+      <c r="Y10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Igual - Operador Hasta No Aplica para eliminar</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -5923,19 +6021,30 @@
         <v>1</v>
       </c>
       <c r="U11" s="7"/>
-      <c r="V11" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y11" s="15"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V11" s="7"/>
+      <c r="W11" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="X11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Eliminar, seleccionando registro Tipo dato Fecha y Operador Desde Mayor - Operador Hasta Distinto</v>
+      </c>
+      <c r="Y11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Mayor - Operador Hasta Distinto para eliminar</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -5960,24 +6069,38 @@
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y12" s="15"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V12" s="7">
+        <v>1</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="X12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Eliminar, seleccionando registro Tipo dato Fecha y Operador Desde Menor - Operador Hasta Menor igual. Considerando la opcion de exportar a excel</v>
+      </c>
+      <c r="Y12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Menor - Operador Hasta Menor igual para eliminar, finalizando con exportar a excel</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -5996,24 +6119,36 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y13" s="15"/>
-    </row>
-    <row r="14" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="7"/>
+      <c r="W13" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="X13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Eliminar, seleccionando registro Tipo dato Carácter y Operador Desde Mayor igual - Operador Hasta Mayor igual</v>
+      </c>
+      <c r="Y13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Carácter y Operador Desde Mayor igual - Operador Hasta Mayor igual para eliminar</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -6032,25 +6167,35 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="W14" s="8"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V14" s="7"/>
+      <c r="W14" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="X14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Eliminar, seleccionando registro Tipo dato Carácter y Operador Desde Menor igual - Operador Hasta Menor</v>
+      </c>
+      <c r="Y14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Carácter y Operador Desde Menor igual - Operador Hasta Menor para eliminar</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -6070,23 +6215,37 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y15" s="15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V15" s="7">
+        <v>1</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="X15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Eliminar, seleccionando registro Tipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor. Considerando la opcion de exportar a excel</v>
+      </c>
+      <c r="Y15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor para eliminar, finalizando con exportar a excel</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -6106,19 +6265,30 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y16" s="15"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V16" s="7"/>
+      <c r="W16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Eliminar, seleccionando registro Tipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual</v>
+      </c>
+      <c r="Y16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual para eliminar</v>
+      </c>
+      <c r="Z16" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="B17" s="4"/>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="7">
@@ -6142,16 +6312,28 @@
       <c r="U17" s="7">
         <v>1</v>
       </c>
-      <c r="V17" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y17" s="15"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V17" s="7"/>
+      <c r="W17" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Modificar, seleccionando registro Tipo dato Carácter y Operador Desde Igual - Operador Hasta No Aplica</v>
+      </c>
+      <c r="Y17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Igual - Operador Hasta No Aplica para modificar</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4"/>
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
@@ -6177,16 +6359,32 @@
         <v>1</v>
       </c>
       <c r="U18" s="7"/>
-      <c r="V18" s="46"/>
-    </row>
-    <row r="19" spans="1:25" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Modificar, seleccionando registro Tipo dato Carácter y Operador Desde Mayor - Operador Hasta Distinto. Considerando la opcion de exportar a excel</v>
+      </c>
+      <c r="Y18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Mayor - Operador Hasta Distinto para modificar, finalizando con exportar a excel</v>
+      </c>
+      <c r="Z18" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="7">
@@ -6210,24 +6408,35 @@
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="15"/>
-    </row>
-    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="7"/>
+      <c r="W19" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Modificar, seleccionando registro Tipo dato Carácter y Operador Desde Menor - Operador Hasta Menor igual</v>
+      </c>
+      <c r="Y19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Menor - Operador Hasta Menor igual para modificar</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>1</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -6246,25 +6455,36 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="15"/>
-    </row>
-    <row r="21" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="7"/>
+      <c r="W20" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Modificar, seleccionando registro Tipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual</v>
+      </c>
+      <c r="Y20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual para modificar</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -6283,25 +6503,38 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="15"/>
-    </row>
-    <row r="22" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="7">
+        <v>1</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Modificar, seleccionando registro Tipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor. Considerando la opcion de exportar a excel</v>
+      </c>
+      <c r="Y21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor para modificar, finalizando con exportar a excel</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>1</v>
       </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -6320,25 +6553,36 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-    </row>
-    <row r="23" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="7"/>
+      <c r="W22" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="X22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Validad funcionalidad Modificar, seleccionando registro Tipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor</v>
+      </c>
+      <c r="Y22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor para modificar</v>
+      </c>
+      <c r="Z22" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -6357,12 +6601,23 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-    </row>
-    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="7"/>
+      <c r="W23" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="X23" s="8" t="str">
+        <f>CONCATENATE("Validad funcionalidad ",IF(B23=1,$B$2,IF(C23=1,$C$2,IF(D23=1,$D$2))),IF(B23=1,", ingresando registro ",IF(C23=1,", seleccionando registro ",IF(D23=1,", seleccionando registro "))),$E$1," ",IF(E23=1,$E$2,IF(F23=1,$F$2,IF(G23=1,$G$2)))," y ",$H$1," ",IF(H23=1,$H$2,IF(I23=1,$I$2,IF(J23=1,$J$2,IF(K23=1,$K$2,IF(L23=1,$L$2,IF(M23=1,$M$2,IF(N23=1,$N$2)))))))," - ",$O$1," ",IF(O23=1,$O$2,IF(P23=1,$P$2,IF(Q23=1,$Q$2,IF(R23=1,$R$2,IF(S23=1,$S$2,IF(T23=1,$T$2,IF(U23=1,$U$2))))))),IF(V23=1,". Considerando la opcion de exportar a excel",""))</f>
+        <v>Validad funcionalidad Modificar, seleccionando registro Tipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual</v>
+      </c>
+      <c r="Y23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual para modificar</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6384,12 +6639,13 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="6"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="8"/>
       <c r="Y24" s="6"/>
-    </row>
-    <row r="25" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6411,12 +6667,13 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="6"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="8"/>
       <c r="Y25" s="6"/>
-    </row>
-    <row r="26" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6438,12 +6695,13 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="6"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="8"/>
       <c r="Y26" s="6"/>
-    </row>
-    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6465,12 +6723,13 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="6"/>
-    </row>
-    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="7"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6492,13 +6751,15 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="6"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="8"/>
       <c r="Y28" s="6"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -6517,10 +6778,12 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="46"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V29" s="7"/>
+      <c r="W29" s="35"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="7"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -6539,10 +6802,12 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="46"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V30" s="7"/>
+      <c r="W30" s="35"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="7"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -6561,10 +6826,12 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="46"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V31" s="7"/>
+      <c r="W31" s="35"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -6583,21 +6850,23 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="X32" s="6" t="s">
-        <v>139</v>
+      <c r="V32" s="7"/>
+      <c r="W32" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="X32" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -6616,10 +6885,12 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="46"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V33" s="7"/>
+      <c r="W33" s="35"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="7"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -6638,10 +6909,12 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="46"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V34" s="7"/>
+      <c r="W34" s="35"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="7"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -6660,10 +6933,12 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="46"/>
-    </row>
-    <row r="36" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V35" s="7"/>
+      <c r="W35" s="35"/>
+    </row>
+    <row r="36" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -6682,13 +6957,15 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="6"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="8"/>
       <c r="Y36" s="6"/>
-    </row>
-    <row r="37" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="6"/>
+    </row>
+    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="7"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -6707,13 +6984,15 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="6"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="8"/>
       <c r="Y37" s="6"/>
-    </row>
-    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
+      <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -6732,13 +7011,15 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="6"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="8"/>
       <c r="Y38" s="6"/>
-    </row>
-    <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -6757,16 +7038,18 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="46"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="6"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="8"/>
       <c r="Y39" s="6"/>
-    </row>
-    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="7"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -6782,13 +7065,15 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="6"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="8"/>
       <c r="Y40" s="6"/>
-    </row>
-    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -6807,13 +7092,15 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="6"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="8"/>
       <c r="Y41" s="6"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
+      <c r="C42" s="4"/>
       <c r="D42" s="7"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -6832,10 +7119,12 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="46"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V42" s="7"/>
+      <c r="W42" s="35"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -6854,10 +7143,12 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="46"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V43" s="7"/>
+      <c r="W43" s="35"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -6876,9 +7167,10 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="46"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V44" s="7"/>
+      <c r="W44" s="35"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="4"/>
@@ -6898,9 +7190,10 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="46"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V45" s="7"/>
+      <c r="W45" s="35"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="4"/>
@@ -6920,9 +7213,10 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="46"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V46" s="7"/>
+      <c r="W46" s="35"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="4"/>
@@ -6942,9 +7236,10 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="46"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V47" s="7"/>
+      <c r="W47" s="35"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="4"/>
@@ -6964,9 +7259,10 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="46"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V48" s="7"/>
+      <c r="W48" s="35"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="4"/>
@@ -6986,9 +7282,10 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="46"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V49" s="7"/>
+      <c r="W49" s="35"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="4"/>
@@ -7008,9 +7305,10 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="7"/>
-      <c r="V50" s="46"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V50" s="7"/>
+      <c r="W50" s="35"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="4"/>
@@ -7030,9 +7328,10 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="46"/>
-    </row>
-    <row r="52" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="7"/>
+      <c r="W51" s="35"/>
+    </row>
+    <row r="52" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="4"/>
@@ -7052,22 +7351,310 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="6"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="8"/>
       <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Y1:Y2"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:N1"/>
-    <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="Y1:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7076,318 +7663,682 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <pane xSplit="8" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="140.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="106.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="64.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="130.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="255.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="I1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="J1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="7">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
@@ -28,11 +28,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alta crédito manual'!$A$2:$H$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="234">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -112,60 +113,18 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Créditos Nuevos, hacer clic en botón generar contabilización</t>
   </si>
   <si>
-    <t>TC_Cartera_SBIFD92_DescargarArchivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SBIFD92_EmitirNomina</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SBIFD92_FechaError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SBIFD93_DescargarArchivo</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SBIFD93_EmitirNomina</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SBIFD93_FechaError</t>
-  </si>
-  <si>
-    <t>Validar decarga de archivo con formato solicitado por la SBIF, indicando fecha correspondiente para generar el mismo</t>
-  </si>
-  <si>
-    <t>Validar emisión de nómina, indicando fecha correspondiente para generar información correspondiente a la nómina</t>
-  </si>
-  <si>
-    <t>Validar decarga de archivo con formato solicitado por la SBIF, indicando fecha que no corresponda a día sábado</t>
-  </si>
-  <si>
-    <t>Validar decarga de archivo con formato solicitado por la SBIF, indicando mes y año en los cuales exiten registros</t>
-  </si>
-  <si>
     <t>Validar decarga de archivo con formato solicitado por la SBIF, sin indicar mes y año</t>
   </si>
   <si>
     <t>Validar emisión de nómina, indicando mes y año para generar información correspondiente a la nómina</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D92, indicar fecha correspondiente a día sábado, hacer clic en boton descargar archivo</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D92, indicar fecha correspondiente a día sábado, hacer clic en boton emitir nomina</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D92, hacer clic en boton descargar archivo</t>
-  </si>
-  <si>
     <t>Descarga de archivo con el formato solicitado por la SBIF de manera exitosa</t>
   </si>
   <si>
     <t>Se debe visualizar información de manera correcta en la nómina</t>
   </si>
   <si>
-    <t>Sistema emite mensaje indicando Error:Periocidad de la Información es de Domingo a Sábado.</t>
-  </si>
-  <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D93, indicar mes y año, hacer clic en boton descargar archivo</t>
   </si>
   <si>
@@ -716,6 +675,66 @@
   </si>
   <si>
     <t>Consulta de tasas de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCRMSAC_Usuario</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionDR_Modificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionDR_AsociadosAgregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionDR_AsociadosModificar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionDR_AsociadosEliminar</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar del sub modulo Documentos Requeridos, seleccionando registro asociado a  Documento Tipo Cliente dependiente</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad agregar Documentos Asociados del sub modulo Documentos Requeridos, seleccionando registro asociado a Documento Descripcion Certificado ultimas 12 Cotizaciones Aval 2</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad modificar Documentos Asociados del sub modulo Documentos Requeridos, seleccionando registro asociado a Documento Descripcion Respaldo PAT</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad eliminar Documentos Asociados del sub modulo Documentos Requeridos, seleccionando registro asociado a Documento Descripcion Seguro Perdida Total</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Documentos Requeridos (Afianza), seleccionar registro asociado a  Documento Tipo Cliente dependiente, hacer clic en botón modificar, editar datos del registro, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Documentos Requeridos (Afianza), seleccionar registro asociado a Documento Descripcion Certificado ultimas 12 Cotizaciones Aval 2, hacer clic en enlace Documento Descripcion, en la sección documentos asociados, hacer clic en boton agregar, ingresar datos correspondientes, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Documentos Requeridos (Afianza), seleccionar registro asociado a Documento Descripcion Respaldo PAT, hacer clic en enlace Documento Descripcion, en la sección documentos asociados, hacer clic en boton modificar, editar datos de fecha, Documento Id, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Documentos Requeridos (Afianza), seleccionar registro asociado a Documento Descripcion Seguro Perdida Total, hacer clic en enlace Documento Descripcion, en la sección documentos asociados, hacer clic en boton eliminar, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Modificación de documentos de manera exitosa</t>
+  </si>
+  <si>
+    <t>Ingreso de documento asociado de manera exitosa</t>
+  </si>
+  <si>
+    <t>Modificación de documentos asociados de manera exitosa</t>
+  </si>
+  <si>
+    <t>Eliminación de documentos asociados de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCRMSAC_Login</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionCRMSAC_Password</t>
+  </si>
+  <si>
+    <t>Validar respueda de web service, inidicando login y contraseña correctos</t>
   </si>
 </sst>
 </file>
@@ -820,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,6 +932,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -943,6 +965,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,9 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,107 +1297,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1572,287 +1594,313 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3:D5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="120.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="176.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="94.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="85.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>32</v>
+      <c r="A3" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>219</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>34</v>
+      <c r="A5" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="35"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="35"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="8"/>
+      <c r="A13" s="35"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="35"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="35"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="35"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="8"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="8"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="35"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="35"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="35"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="35"/>
+      <c r="C32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="35"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1869,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,65 +1930,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2185,37 +2233,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="36" t="s">
+      <c r="A1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2226,10 +2274,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
@@ -2237,10 +2285,10 @@
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2260,7 +2308,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J3" s="8" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),", considerando el enlace ",IF(E3=1,$E$2,IF(F3=1,$F$2,""))," para realizar la acción de ",IF(G3=1,$G$2,IF(H3=1,$H$2,"")))</f>
@@ -2271,7 +2319,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2292,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" ref="J4:J16" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
@@ -2303,7 +2351,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2324,7 +2372,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2335,7 +2383,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2356,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2367,7 +2415,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2384,17 +2432,17 @@
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2415,7 +2463,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2426,7 +2474,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2446,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2457,7 +2505,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2477,7 +2525,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2488,7 +2536,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2508,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2519,7 +2567,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2535,17 +2583,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2564,7 +2612,7 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2575,7 +2623,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2594,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2605,7 +2653,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2624,7 +2672,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2635,7 +2683,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2654,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2665,7 +2713,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2680,17 +2728,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2872,16 +2920,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3125,39 +3173,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -3168,7 +3216,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -3176,11 +3224,11 @@
       <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3200,16 +3248,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3230,16 +3278,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3258,16 +3306,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3284,16 +3332,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3312,16 +3360,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3337,16 +3385,16 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="L8" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3364,16 +3412,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3417,16 +3465,16 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3864,24 +3912,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4155,39 +4203,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -4198,7 +4246,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -4206,11 +4254,11 @@
       <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -4230,16 +4278,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4260,16 +4308,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4288,16 +4336,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4316,16 +4364,16 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4344,16 +4392,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -4379,16 +4427,16 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4878,7 +4926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G10" sqref="G9:G10"/>
     </sheetView>
@@ -4892,37 +4940,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5171,24 +5219,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5452,9 +5500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="23" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z33" sqref="Z33"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5484,55 +5532,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="W1" s="48" t="s">
+      <c r="A1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="W1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Y1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -5543,61 +5591,61 @@
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="V2" s="37"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
+        <v>156</v>
+      </c>
+      <c r="V2" s="38"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -5635,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="35" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="X3" s="8" t="str">
         <f>CONCATENATE("Validad funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),IF(B3=1,", ingresando registro ",IF(C3=1,", seleccionando registro ",IF(D3=1,", seleccionando registro "))),$E$1," ",IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2))),"y ",$H$1," ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2)))))))," - ",$O$1," ",IF(O3=1,$O$2,IF(P3=1,$P$2,IF(Q3=1,$Q$2,IF(R3=1,$R$2,IF(S3=1,$S$2,IF(T3=1,$T$2,IF(U3=1,$U$2))))))),IF(V3=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -5646,7 +5694,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Igual - Operador Hasta No Aplica, finalizando con exportar a excel</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5683,10 +5731,10 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="35" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="X4" s="8" t="str">
-        <f t="shared" ref="X4:X22" si="0">CONCATENATE("Validad funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),IF(B4=1,", ingresando registro ",IF(C4=1,", seleccionando registro ",IF(D4=1,", seleccionando registro "))),$E$1," ",IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2))),"y ",$H$1," ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))," - ",$O$1," ",IF(O4=1,$O$2,IF(P4=1,$P$2,IF(Q4=1,$Q$2,IF(R4=1,$R$2,IF(S4=1,$S$2,IF(T4=1,$T$2,IF(U4=1,$U$2))))))),IF(V4=1,". Considerando la opcion de exportar a excel",""))</f>
+        <f t="shared" ref="X4:X5" si="0">CONCATENATE("Validad funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),IF(B4=1,", ingresando registro ",IF(C4=1,", seleccionando registro ",IF(D4=1,", seleccionando registro "))),$E$1," ",IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2))),"y ",$H$1," ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))," - ",$O$1," ",IF(O4=1,$O$2,IF(P4=1,$P$2,IF(Q4=1,$Q$2,IF(R4=1,$R$2,IF(S4=1,$S$2,IF(T4=1,$T$2,IF(U4=1,$U$2))))))),IF(V4=1,". Considerando la opcion de exportar a excel",""))</f>
         <v>Validad funcionalidad Agregar, ingresando registro Tipo dato Numericoy Operador Desde Mayor - Operador Hasta Distinto</v>
       </c>
       <c r="Y4" s="6" t="str">
@@ -5694,7 +5742,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Mayor - Operador Hasta Distinto</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5731,7 +5779,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="35" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="X5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5742,7 +5790,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Menor - Operador Hasta Menor igual</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5781,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="35" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="X6" s="8" t="str">
         <f>CONCATENATE("Validad funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2))),IF(B6=1,", ingresando registro ",IF(C6=1,", seleccionando registro ",IF(D6=1,", seleccionando registro "))),$E$1," ",IF(E6=1,$E$2,IF(F6=1,$F$2,IF(G6=1,$G$2)))," y ",$H$1," ",IF(H6=1,$H$2,IF(I6=1,$I$2,IF(J6=1,$J$2,IF(K6=1,$K$2,IF(L6=1,$L$2,IF(M6=1,$M$2,IF(N6=1,$N$2)))))))," - ",$O$1," ",IF(O6=1,$O$2,IF(P6=1,$P$2,IF(Q6=1,$Q$2,IF(R6=1,$R$2,IF(S6=1,$S$2,IF(T6=1,$T$2,IF(U6=1,$U$2))))))),IF(V6=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -5792,7 +5840,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual, finalizando con exportar a excel</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5829,7 +5877,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="35" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="X7" s="8" t="str">
         <f t="shared" ref="X7:X22" si="2">CONCATENATE("Validad funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2))),IF(B7=1,", ingresando registro ",IF(C7=1,", seleccionando registro ",IF(D7=1,", seleccionando registro "))),$E$1," ",IF(E7=1,$E$2,IF(F7=1,$F$2,IF(G7=1,$G$2)))," y ",$H$1," ",IF(H7=1,$H$2,IF(I7=1,$I$2,IF(J7=1,$J$2,IF(K7=1,$K$2,IF(L7=1,$L$2,IF(M7=1,$M$2,IF(N7=1,$N$2)))))))," - ",$O$1," ",IF(O7=1,$O$2,IF(P7=1,$P$2,IF(Q7=1,$Q$2,IF(R7=1,$R$2,IF(S7=1,$S$2,IF(T7=1,$T$2,IF(U7=1,$U$2))))))),IF(V7=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -5840,7 +5888,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5877,7 +5925,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="35" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="X8" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5888,7 +5936,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Carácter y Operador Desde Distinto - Operador Hasta Mayor</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5927,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="35" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="X9" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5938,7 +5986,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Carácter y Operador Desde No Aplica - Operador Hasta Igual, finalizando con exportar a excel</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5975,7 +6023,7 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="35" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="X10" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5986,7 +6034,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Igual - Operador Hasta No Aplica para eliminar</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -6023,7 +6071,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="35" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="X11" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6034,7 +6082,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Mayor - Operador Hasta Distinto para eliminar</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -6073,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="35" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="X12" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6084,7 +6132,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Menor - Operador Hasta Menor igual para eliminar, finalizando con exportar a excel</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -6121,7 +6169,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="35" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="X13" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6132,7 +6180,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Carácter y Operador Desde Mayor igual - Operador Hasta Mayor igual para eliminar</v>
       </c>
       <c r="Z13" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6169,7 +6217,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="35" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="X14" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6180,7 +6228,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Carácter y Operador Desde Menor igual - Operador Hasta Menor para eliminar</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -6219,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="X15" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6230,7 +6278,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor para eliminar, finalizando con exportar a excel</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -6267,7 +6315,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="35" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="X16" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6278,7 +6326,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual para eliminar</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -6314,7 +6362,7 @@
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="35" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="X17" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6325,7 +6373,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Igual - Operador Hasta No Aplica para modificar</v>
       </c>
       <c r="Z17" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -6363,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="35" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="X18" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6374,7 +6422,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Mayor - Operador Hasta Distinto para modificar, finalizando con exportar a excel</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6410,7 +6458,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="35" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="X19" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6421,7 +6469,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Menor - Operador Hasta Menor igual para modificar</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6457,7 +6505,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="35" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="X20" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6468,7 +6516,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual para modificar</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6507,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="35" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="X21" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6518,7 +6566,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor para modificar, finalizando con exportar a excel</v>
       </c>
       <c r="Z21" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6555,7 +6603,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="35" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="X22" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6566,7 +6614,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor para modificar</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6603,7 +6651,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="35" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="X23" s="8" t="str">
         <f>CONCATENATE("Validad funcionalidad ",IF(B23=1,$B$2,IF(C23=1,$C$2,IF(D23=1,$D$2))),IF(B23=1,", ingresando registro ",IF(C23=1,", seleccionando registro ",IF(D23=1,", seleccionando registro "))),$E$1," ",IF(E23=1,$E$2,IF(F23=1,$F$2,IF(G23=1,$G$2)))," y ",$H$1," ",IF(H23=1,$H$2,IF(I23=1,$I$2,IF(J23=1,$J$2,IF(K23=1,$K$2,IF(L23=1,$L$2,IF(M23=1,$M$2,IF(N23=1,$N$2)))))))," - ",$O$1," ",IF(O23=1,$O$2,IF(P23=1,$P$2,IF(Q23=1,$Q$2,IF(R23=1,$R$2,IF(S23=1,$S$2,IF(T23=1,$T$2,IF(U23=1,$U$2))))))),IF(V23=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -6614,7 +6662,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual para modificar</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6852,16 +6900,16 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="35" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -7666,8 +7714,8 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7686,36 +7734,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="46"/>
+      <c r="H1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
@@ -7726,7 +7774,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -7734,10 +7782,10 @@
       <c r="G2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -7756,16 +7804,16 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7785,16 +7833,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7810,16 +7858,16 @@
       <c r="F5" s="4"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7835,16 +7883,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7860,16 +7908,16 @@
       <c r="F7" s="4"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -7893,16 +7941,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8332,13 +8380,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos Cartera/Administración.xlsx
+++ b/Casos Cartera/Administración.xlsx
@@ -9,31 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Alta crédito manual" sheetId="15" r:id="rId1"/>
     <sheet name="Cuenta Corriente" sheetId="38" r:id="rId2"/>
     <sheet name="Lista Blanca" sheetId="16" r:id="rId3"/>
-    <sheet name="Parámetros" sheetId="17" r:id="rId4"/>
-    <sheet name="Parámetros de asignación" sheetId="20" r:id="rId5"/>
-    <sheet name="Tasa Máxima Convencional" sheetId="21" r:id="rId6"/>
-    <sheet name="Parámetros Afianza" sheetId="22" r:id="rId7"/>
-    <sheet name="Criterio Selección Crédito (Afi" sheetId="23" r:id="rId8"/>
-    <sheet name="Exclusión Tipo Vehículo (Afianz" sheetId="24" r:id="rId9"/>
-    <sheet name="Documentos Requeridos (Afianza)" sheetId="25" r:id="rId10"/>
-    <sheet name="Parámetros CRM SAC" sheetId="26" r:id="rId11"/>
+    <sheet name="Parámetros de asignación" sheetId="20" r:id="rId4"/>
+    <sheet name="Tasa Máxima Convencional" sheetId="21" r:id="rId5"/>
+    <sheet name="Parámetros Afianza" sheetId="22" r:id="rId6"/>
+    <sheet name="Criterio Selección Crédito (Afi" sheetId="23" r:id="rId7"/>
+    <sheet name="Exclusión Tipo Vehículo (Afianz" sheetId="24" r:id="rId8"/>
+    <sheet name="Documentos Requeridos (Afianza)" sheetId="25" r:id="rId9"/>
+    <sheet name="Parámetros CRM SAC" sheetId="26" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alta crédito manual'!$A$2:$H$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="219">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -56,63 +54,6 @@
     <t>Modificar</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesoXML_OfertaTD</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoXML_RestoXML</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoXML_CartaGuiaID</t>
-  </si>
-  <si>
-    <t>Validar emisión XML con la opción oferta y TD</t>
-  </si>
-  <si>
-    <t>Validar emisión XML con la opción resto XML</t>
-  </si>
-  <si>
-    <t>Validar emisión XML, sin indicar ID de carta guía</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), ingresar ID válido de carta guía, hacer clic en boton Generar XML Oferta y TD</t>
-  </si>
-  <si>
-    <t>XML generado exitosamente</t>
-  </si>
-  <si>
-    <t>Sisteme emite mensaje indicando "Debe ingresar Carta Guia"</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), ingresar ID válido de carta guía, hacer clic en boton Resto XML</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), hacer clic en boton Generar XML Oferta y TD</t>
-  </si>
-  <si>
-    <t>TC_Cartera_CentralizacionCreditosNuevos_FechaError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_CentralizacionCreditosNuevos_Generar</t>
-  </si>
-  <si>
-    <t>Validar emisión de archivo excel contabilización, el cual es cargado en sistema Softland para generar los comprobantes contables por cada crédito enviado a él.</t>
-  </si>
-  <si>
-    <t>Validar emisión de archivo excel contabilización, sin indicar fecha para genera contabilización.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Créditos Nuevos, ingresar fecha, hacer clic en botón generar contabilización</t>
-  </si>
-  <si>
-    <t>Emisión de archivo excel con formato exigido por Softland</t>
-  </si>
-  <si>
-    <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Centralización Créditos Nuevos, hacer clic en botón generar contabilización</t>
-  </si>
-  <si>
     <t>Validar decarga de archivo con formato solicitado por la SBIF, sin indicar mes y año</t>
   </si>
   <si>
@@ -735,6 +676,18 @@
   </si>
   <si>
     <t>Validar respueda de web service, inidicando login y contraseña correctos</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdministracionPAfianza_FTP</t>
+  </si>
+  <si>
+    <t>Validar envío de archvio a directorio configurado</t>
+  </si>
+  <si>
+    <t>Acceder a directorio configurado para visualizar archivo enviado</t>
+  </si>
+  <si>
+    <t>Archivo enviado a directorio configurado</t>
   </si>
 </sst>
 </file>
@@ -1318,86 +1271,86 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1594,330 +1547,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="176.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="85.5703125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="C32" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1951,44 +1583,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2234,19 +1866,19 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
       <c r="E1" s="43" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="45" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H1" s="46"/>
       <c r="I1" s="37" t="s">
@@ -2274,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>6</v>
@@ -2308,7 +1940,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J3" s="8" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),", considerando el enlace ",IF(E3=1,$E$2,IF(F3=1,$F$2,""))," para realizar la acción de ",IF(G3=1,$G$2,IF(H3=1,$H$2,"")))</f>
@@ -2319,7 +1951,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2340,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J4" s="8" t="str">
         <f t="shared" ref="J4:J16" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),", considerando el enlace ",IF(E4=1,$E$2,IF(F4=1,$F$2,""))," para realizar la acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,"")))</f>
@@ -2351,7 +1983,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2372,7 +2004,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2015,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2415,7 +2047,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2432,17 +2064,17 @@
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton agregar</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -2463,7 +2095,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2474,7 +2106,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2494,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2505,7 +2137,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2525,7 +2157,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2536,7 +2168,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2556,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2567,7 +2199,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2583,17 +2215,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="K12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton eliminar</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2612,7 +2244,7 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2623,7 +2255,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de modificar registro</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2653,7 +2285,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Corriente Nro para realizar la acción de eliminar registro</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2672,7 +2304,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2683,7 +2315,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de modificar registro</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2702,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2713,7 +2345,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar, considerar enlace Banco para realizar la acción de eliminar registro</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2728,17 +2360,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="K17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Cuenta Corriente, hacer clic en boton modificar</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2920,16 +2552,16 @@
       <c r="G32" s="4"/>
       <c r="H32" s="7"/>
       <c r="I32" s="6" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3174,22 +2806,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
       <c r="E1" s="25" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="39" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>0</v>
@@ -3216,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -3248,16 +2880,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3278,16 +2910,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3306,16 +2938,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3332,16 +2964,16 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3360,16 +2992,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3385,16 +3017,16 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3412,16 +3044,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3465,16 +3097,16 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3896,294 +3528,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="168.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="192.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,22 +3553,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="44"/>
       <c r="E1" s="30" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="39" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>0</v>
@@ -4246,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -4278,16 +3627,16 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4308,16 +3657,16 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4336,16 +3685,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4364,16 +3713,16 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4392,16 +3741,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -4427,16 +3776,16 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4922,7 +4271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
@@ -4961,16 +4310,16 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4996,6 +4345,285 @@
       <c r="B7" s="8"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="95.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -5202,301 +4830,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z65"/>
   <sheetViews>
@@ -5533,20 +4866,20 @@
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
       <c r="E1" s="43" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F1" s="49"/>
       <c r="G1" s="44"/>
       <c r="H1" s="45" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
@@ -5555,7 +4888,7 @@
       <c r="M1" s="48"/>
       <c r="N1" s="46"/>
       <c r="O1" s="45" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P1" s="48"/>
       <c r="Q1" s="48"/>
@@ -5564,7 +4897,7 @@
       <c r="T1" s="48"/>
       <c r="U1" s="46"/>
       <c r="V1" s="47" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="W1" s="50" t="s">
         <v>0</v>
@@ -5591,55 +4924,55 @@
         <v>6</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="V2" s="38"/>
       <c r="W2" s="40"/>
@@ -5683,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="35" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="X3" s="8" t="str">
         <f>CONCATENATE("Validad funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2))),IF(B3=1,", ingresando registro ",IF(C3=1,", seleccionando registro ",IF(D3=1,", seleccionando registro "))),$E$1," ",IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2))),"y ",$H$1," ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2)))))))," - ",$O$1," ",IF(O3=1,$O$2,IF(P3=1,$P$2,IF(Q3=1,$Q$2,IF(R3=1,$R$2,IF(S3=1,$S$2,IF(T3=1,$T$2,IF(U3=1,$U$2))))))),IF(V3=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -5694,7 +5027,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Igual - Operador Hasta No Aplica, finalizando con exportar a excel</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5731,7 +5064,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="35" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="X4" s="8" t="str">
         <f t="shared" ref="X4:X5" si="0">CONCATENATE("Validad funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2))),IF(B4=1,", ingresando registro ",IF(C4=1,", seleccionando registro ",IF(D4=1,", seleccionando registro "))),$E$1," ",IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2))),"y ",$H$1," ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))," - ",$O$1," ",IF(O4=1,$O$2,IF(P4=1,$P$2,IF(Q4=1,$Q$2,IF(R4=1,$R$2,IF(S4=1,$S$2,IF(T4=1,$T$2,IF(U4=1,$U$2))))))),IF(V4=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -5742,7 +5075,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Mayor - Operador Hasta Distinto</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5779,7 +5112,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="35" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="X5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5790,7 +5123,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Numerico y Operador Desde Menor - Operador Hasta Menor igual</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5829,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="35" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="X6" s="8" t="str">
         <f>CONCATENATE("Validad funcionalidad ",IF(B6=1,$B$2,IF(C6=1,$C$2,IF(D6=1,$D$2))),IF(B6=1,", ingresando registro ",IF(C6=1,", seleccionando registro ",IF(D6=1,", seleccionando registro "))),$E$1," ",IF(E6=1,$E$2,IF(F6=1,$F$2,IF(G6=1,$G$2)))," y ",$H$1," ",IF(H6=1,$H$2,IF(I6=1,$I$2,IF(J6=1,$J$2,IF(K6=1,$K$2,IF(L6=1,$L$2,IF(M6=1,$M$2,IF(N6=1,$N$2)))))))," - ",$O$1," ",IF(O6=1,$O$2,IF(P6=1,$P$2,IF(Q6=1,$Q$2,IF(R6=1,$R$2,IF(S6=1,$S$2,IF(T6=1,$T$2,IF(U6=1,$U$2))))))),IF(V6=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -5840,7 +5173,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual, finalizando con exportar a excel</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5877,7 +5210,7 @@
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="35" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="X7" s="8" t="str">
         <f t="shared" ref="X7:X22" si="2">CONCATENATE("Validad funcionalidad ",IF(B7=1,$B$2,IF(C7=1,$C$2,IF(D7=1,$D$2))),IF(B7=1,", ingresando registro ",IF(C7=1,", seleccionando registro ",IF(D7=1,", seleccionando registro "))),$E$1," ",IF(E7=1,$E$2,IF(F7=1,$F$2,IF(G7=1,$G$2)))," y ",$H$1," ",IF(H7=1,$H$2,IF(I7=1,$I$2,IF(J7=1,$J$2,IF(K7=1,$K$2,IF(L7=1,$L$2,IF(M7=1,$M$2,IF(N7=1,$N$2)))))))," - ",$O$1," ",IF(O7=1,$O$2,IF(P7=1,$P$2,IF(Q7=1,$Q$2,IF(R7=1,$R$2,IF(S7=1,$S$2,IF(T7=1,$T$2,IF(U7=1,$U$2))))))),IF(V7=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -5888,7 +5221,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -5925,7 +5258,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="35" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="X8" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5936,7 +5269,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Carácter y Operador Desde Distinto - Operador Hasta Mayor</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5975,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="35" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="X9" s="8" t="str">
         <f t="shared" si="2"/>
@@ -5986,7 +5319,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), hacer clic en boton agregar e ingresar Tipo dato Carácter y Operador Desde No Aplica - Operador Hasta Igual, finalizando con exportar a excel</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6023,7 +5356,7 @@
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="35" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="X10" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6034,7 +5367,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Igual - Operador Hasta No Aplica para eliminar</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -6071,7 +5404,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="35" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="X11" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6082,7 +5415,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Mayor - Operador Hasta Distinto para eliminar</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -6121,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="35" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="X12" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6132,7 +5465,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Fecha y Operador Desde Menor - Operador Hasta Menor igual para eliminar, finalizando con exportar a excel</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -6169,7 +5502,7 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="35" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="X13" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6180,7 +5513,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Carácter y Operador Desde Mayor igual - Operador Hasta Mayor igual para eliminar</v>
       </c>
       <c r="Z13" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6217,7 +5550,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="35" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="X14" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6228,7 +5561,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Carácter y Operador Desde Menor igual - Operador Hasta Menor para eliminar</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -6267,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="X15" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6278,7 +5611,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor para eliminar, finalizando con exportar a excel</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -6315,7 +5648,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="35" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="X16" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6326,7 +5659,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registro Tipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual para eliminar</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -6362,7 +5695,7 @@
       </c>
       <c r="V17" s="7"/>
       <c r="W17" s="35" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="X17" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6373,7 +5706,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Igual - Operador Hasta No Aplica para modificar</v>
       </c>
       <c r="Z17" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -6411,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="35" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="X18" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6422,7 +5755,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Mayor - Operador Hasta Distinto para modificar, finalizando con exportar a excel</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -6458,7 +5791,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="35" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="X19" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6469,7 +5802,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Carácter y Operador Desde Menor - Operador Hasta Menor igual para modificar</v>
       </c>
       <c r="Z19" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6505,7 +5838,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="35" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="X20" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6516,7 +5849,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Fecha y Operador Desde Mayor igual - Operador Hasta Mayor igual para modificar</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6555,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="35" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="X21" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6566,7 +5899,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Fecha y Operador Desde Menor igual - Operador Hasta Menor para modificar, finalizando con exportar a excel</v>
       </c>
       <c r="Z21" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6603,7 +5936,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="35" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="X22" s="8" t="str">
         <f t="shared" si="2"/>
@@ -6614,7 +5947,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Numerico y Operador Desde Distinto - Operador Hasta Mayor para modificar</v>
       </c>
       <c r="Z22" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6651,7 +5984,7 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="35" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="X23" s="8" t="str">
         <f>CONCATENATE("Validad funcionalidad ",IF(B23=1,$B$2,IF(C23=1,$C$2,IF(D23=1,$D$2))),IF(B23=1,", ingresando registro ",IF(C23=1,", seleccionando registro ",IF(D23=1,", seleccionando registro "))),$E$1," ",IF(E23=1,$E$2,IF(F23=1,$F$2,IF(G23=1,$G$2)))," y ",$H$1," ",IF(H23=1,$H$2,IF(I23=1,$I$2,IF(J23=1,$J$2,IF(K23=1,$K$2,IF(L23=1,$L$2,IF(M23=1,$M$2,IF(N23=1,$N$2)))))))," - ",$O$1," ",IF(O23=1,$O$2,IF(P23=1,$P$2,IF(Q23=1,$Q$2,IF(R23=1,$R$2,IF(S23=1,$S$2,IF(T23=1,$T$2,IF(U23=1,$U$2))))))),IF(V23=1,". Considerando la opcion de exportar a excel",""))</f>
@@ -6662,7 +5995,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Administración - sub modulo Criterio Selección Crédito (Afianza), seleccionar registroTipo dato Numerico y Operador Desde No Aplica - Operador Hasta Igual para modificar</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6900,16 +6233,16 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="35" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="Z32" s="6" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -7709,7 +7042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
@@ -7735,18 +7068,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="44"/>
       <c r="E1" s="30" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="37" t="s">
@@ -7774,7 +7107,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
@@ -7804,16 +7137,16 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7833,16 +7166,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7858,16 +7191,16 @@
       <c r="F5" s="4"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7883,16 +7216,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7908,16 +7241,16 @@
       <c r="F7" s="4"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -7941,16 +7274,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8390,4 +7723,325 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="176.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="85.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="C32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>